--- a/Project_python/out/Send/test_abstract_nmf.xlsx
+++ b/Project_python/out/Send/test_abstract_nmf.xlsx
@@ -15,7 +15,19 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1460,7 +1472,7 @@
   <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Project_python/out/Send/test_abstract_nmf.xlsx
+++ b/Project_python/out/Send/test_abstract_nmf.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="11_3B3DCF2E4170B20F62355476585DCE3A8744FB64" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45FA6370-45B4-464F-9B22-060EB6AF46DC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1471,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
